--- a/results/LSTMAttentionModel/AMD.O_pre.xlsx
+++ b/results/LSTMAttentionModel/AMD.O_pre.xlsx
@@ -635,28 +635,28 @@
         <v>5.803776741027832</v>
       </c>
       <c r="U2" t="n">
-        <v>4.997974872589111</v>
+        <v>4.061618328094482</v>
       </c>
       <c r="V2" t="n">
-        <v>1.56558883190155</v>
+        <v>0.9843754172325134</v>
       </c>
       <c r="W2" t="n">
-        <v>26.35336303710938</v>
+        <v>22.91321182250977</v>
       </c>
       <c r="X2" t="n">
-        <v>3.225465536117554</v>
+        <v>3.861445903778076</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.35237979888916</v>
+        <v>3.533332824707031</v>
       </c>
       <c r="Z2" t="n">
-        <v>49.45723724365234</v>
+        <v>17.28147315979004</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.87384700775146</v>
+        <v>14.10380458831787</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04031164199113846</v>
+        <v>0.02334972470998764</v>
       </c>
     </row>
     <row r="3">
@@ -719,28 +719,28 @@
         <v>-75.90525817871094</v>
       </c>
       <c r="U3" t="n">
-        <v>4.621712684631348</v>
+        <v>1.03161084651947</v>
       </c>
       <c r="V3" t="n">
-        <v>1.778621315956116</v>
+        <v>1.069241285324097</v>
       </c>
       <c r="W3" t="n">
-        <v>23.35201263427734</v>
+        <v>20.80114555358887</v>
       </c>
       <c r="X3" t="n">
-        <v>3.117920875549316</v>
+        <v>3.834311485290527</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.140944957733154</v>
+        <v>3.519522428512573</v>
       </c>
       <c r="Z3" t="n">
-        <v>45.73321914672852</v>
+        <v>23.0880184173584</v>
       </c>
       <c r="AA3" t="n">
-        <v>14.31897068023682</v>
+        <v>13.59589576721191</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.08900731801986694</v>
+        <v>0.04055770486593246</v>
       </c>
     </row>
     <row r="4">
@@ -803,28 +803,28 @@
         <v>-72.87857055664062</v>
       </c>
       <c r="U4" t="n">
-        <v>20.3841495513916</v>
+        <v>4.877599239349365</v>
       </c>
       <c r="V4" t="n">
-        <v>1.859889268875122</v>
+        <v>1.057810425758362</v>
       </c>
       <c r="W4" t="n">
-        <v>20.13001251220703</v>
+        <v>19.2560920715332</v>
       </c>
       <c r="X4" t="n">
-        <v>3.359301805496216</v>
+        <v>3.971842765808105</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.937247276306152</v>
+        <v>3.537757873535156</v>
       </c>
       <c r="Z4" t="n">
-        <v>51.84270477294922</v>
+        <v>20.01893043518066</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.54966163635254</v>
+        <v>13.2976245880127</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3282355070114136</v>
+        <v>0.3660208284854889</v>
       </c>
     </row>
     <row r="5">
@@ -887,28 +887,28 @@
         <v>-13.34173393249512</v>
       </c>
       <c r="U5" t="n">
-        <v>-20.98509407043457</v>
+        <v>-7.504254341125488</v>
       </c>
       <c r="V5" t="n">
-        <v>1.98827338218689</v>
+        <v>1.236620426177979</v>
       </c>
       <c r="W5" t="n">
-        <v>17.5172233581543</v>
+        <v>16.41646575927734</v>
       </c>
       <c r="X5" t="n">
-        <v>2.843065977096558</v>
+        <v>3.206196308135986</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.631493091583252</v>
+        <v>2.933355093002319</v>
       </c>
       <c r="Z5" t="n">
-        <v>38.7555046081543</v>
+        <v>79.53726196289062</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.845178127288818</v>
+        <v>7.700379371643066</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1885142773389816</v>
+        <v>0.1732550114393234</v>
       </c>
     </row>
     <row r="6">
@@ -971,28 +971,28 @@
         <v>-13.52124404907227</v>
       </c>
       <c r="U6" t="n">
-        <v>14.54318141937256</v>
+        <v>5.946604251861572</v>
       </c>
       <c r="V6" t="n">
-        <v>1.940192103385925</v>
+        <v>1.251839876174927</v>
       </c>
       <c r="W6" t="n">
-        <v>19.45745277404785</v>
+        <v>19.47006416320801</v>
       </c>
       <c r="X6" t="n">
-        <v>3.341135263442993</v>
+        <v>4.073464870452881</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.676328182220459</v>
+        <v>2.901067018508911</v>
       </c>
       <c r="Z6" t="n">
-        <v>43.80033493041992</v>
+        <v>73.74774932861328</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.03809642791748</v>
+        <v>6.273496150970459</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01341156102716923</v>
+        <v>0.02461457252502441</v>
       </c>
     </row>
     <row r="7">
@@ -1055,28 +1055,28 @@
         <v>50.25042724609375</v>
       </c>
       <c r="U7" t="n">
-        <v>-6.009346008300781</v>
+        <v>-6.174956798553467</v>
       </c>
       <c r="V7" t="n">
-        <v>1.820438385009766</v>
+        <v>1.34246563911438</v>
       </c>
       <c r="W7" t="n">
-        <v>17.97719955444336</v>
+        <v>18.39040946960449</v>
       </c>
       <c r="X7" t="n">
-        <v>3.12630033493042</v>
+        <v>3.142139911651611</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.557117938995361</v>
+        <v>2.465424776077271</v>
       </c>
       <c r="Z7" t="n">
-        <v>43.59372329711914</v>
+        <v>45.48172760009766</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.486273765563965</v>
+        <v>5.456552982330322</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1236745715141296</v>
+        <v>0.118901401758194</v>
       </c>
     </row>
     <row r="8">
@@ -1139,28 +1139,28 @@
         <v>-5.062739372253418</v>
       </c>
       <c r="U8" t="n">
-        <v>-32.18039703369141</v>
+        <v>-23.29557609558105</v>
       </c>
       <c r="V8" t="n">
-        <v>1.822122693061829</v>
+        <v>1.648866891860962</v>
       </c>
       <c r="W8" t="n">
-        <v>11.41988468170166</v>
+        <v>8.970026969909668</v>
       </c>
       <c r="X8" t="n">
-        <v>1.958623766899109</v>
+        <v>2.015847444534302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.397179007530212</v>
+        <v>1.428657412528992</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.31467247009277</v>
+        <v>35.69476699829102</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.52061128616333</v>
+        <v>4.168662548065186</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4905222952365875</v>
+        <v>0.4475084841251373</v>
       </c>
     </row>
     <row r="9">
@@ -1223,28 +1223,28 @@
         <v>-1.785714507102966</v>
       </c>
       <c r="U9" t="n">
-        <v>-10.94853591918945</v>
+        <v>-13.09440517425537</v>
       </c>
       <c r="V9" t="n">
-        <v>1.605431079864502</v>
+        <v>1.61879575252533</v>
       </c>
       <c r="W9" t="n">
-        <v>11.73322772979736</v>
+        <v>10.76809883117676</v>
       </c>
       <c r="X9" t="n">
-        <v>1.762821555137634</v>
+        <v>2.05724835395813</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.420338034629822</v>
+        <v>1.366141200065613</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.96442031860352</v>
+        <v>22.02891731262207</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.396636962890625</v>
+        <v>2.33535361289978</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.3598657250404358</v>
+        <v>0.3955507576465607</v>
       </c>
     </row>
     <row r="10">
@@ -1305,28 +1305,28 @@
         <v>-2.750611066818237</v>
       </c>
       <c r="U10" t="n">
-        <v>28.13902854919434</v>
+        <v>23.69392776489258</v>
       </c>
       <c r="V10" t="n">
-        <v>1.635220050811768</v>
+        <v>1.873077750205994</v>
       </c>
       <c r="W10" t="n">
-        <v>18.93240165710449</v>
+        <v>14.74002361297607</v>
       </c>
       <c r="X10" t="n">
-        <v>2.154100656509399</v>
+        <v>2.594425201416016</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.943857669830322</v>
+        <v>1.845806121826172</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.4684886932373</v>
+        <v>40.86505508422852</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.778734683990479</v>
+        <v>4.037015914916992</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.05809739232063293</v>
+        <v>0.009597830474376678</v>
       </c>
     </row>
     <row r="11">
@@ -1387,28 +1387,28 @@
         <v>-2.50106143951416</v>
       </c>
       <c r="U11" t="n">
-        <v>23.03225517272949</v>
+        <v>14.75594520568848</v>
       </c>
       <c r="V11" t="n">
-        <v>1.480924606323242</v>
+        <v>1.437095522880554</v>
       </c>
       <c r="W11" t="n">
-        <v>22.35561752319336</v>
+        <v>18.87802696228027</v>
       </c>
       <c r="X11" t="n">
-        <v>2.592800617218018</v>
+        <v>3.297611713409424</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.141902923583984</v>
+        <v>2.379388570785522</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.92779922485352</v>
+        <v>47.66738891601562</v>
       </c>
       <c r="AA11" t="n">
-        <v>4.348936557769775</v>
+        <v>4.683813095092773</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.141797810792923</v>
+        <v>0.06016318500041962</v>
       </c>
     </row>
     <row r="12">
@@ -1469,28 +1469,28 @@
         <v>-3.391267776489258</v>
       </c>
       <c r="U12" t="n">
-        <v>10.32213687896729</v>
+        <v>5.861011981964111</v>
       </c>
       <c r="V12" t="n">
-        <v>1.421075820922852</v>
+        <v>1.375556945800781</v>
       </c>
       <c r="W12" t="n">
-        <v>26.39134407043457</v>
+        <v>19.26698112487793</v>
       </c>
       <c r="X12" t="n">
-        <v>2.740541934967041</v>
+        <v>3.090910911560059</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.436397075653076</v>
+        <v>2.344411849975586</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.23623275756836</v>
+        <v>19.70414161682129</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.258048057556152</v>
+        <v>5.570425510406494</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.5234142541885376</v>
+        <v>0.437984436750412</v>
       </c>
     </row>
     <row r="13">
@@ -1551,28 +1551,28 @@
         <v>-6.500532627105713</v>
       </c>
       <c r="U13" t="n">
-        <v>12.59703922271729</v>
+        <v>8.144975662231445</v>
       </c>
       <c r="V13" t="n">
-        <v>1.300361633300781</v>
+        <v>1.057396531105042</v>
       </c>
       <c r="W13" t="n">
-        <v>31.26810073852539</v>
+        <v>26.72420310974121</v>
       </c>
       <c r="X13" t="n">
-        <v>3.038499116897583</v>
+        <v>3.509122610092163</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.859370708465576</v>
+        <v>2.875808238983154</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.40932083129883</v>
+        <v>43.0188102722168</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.403282165527344</v>
+        <v>9.150352478027344</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.04308561235666275</v>
+        <v>0.04207595065236092</v>
       </c>
     </row>
     <row r="14">
@@ -1637,28 +1637,28 @@
         <v>6.589407920837402</v>
       </c>
       <c r="U14" t="n">
-        <v>4.753996849060059</v>
+        <v>4.997107982635498</v>
       </c>
       <c r="V14" t="n">
-        <v>1.469399571418762</v>
+        <v>1.209269046783447</v>
       </c>
       <c r="W14" t="n">
-        <v>30.03782081604004</v>
+        <v>30.28424072265625</v>
       </c>
       <c r="X14" t="n">
-        <v>2.615080595016479</v>
+        <v>3.46387243270874</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.264781475067139</v>
+        <v>3.211347579956055</v>
       </c>
       <c r="Z14" t="n">
-        <v>39.24355697631836</v>
+        <v>83.82242584228516</v>
       </c>
       <c r="AA14" t="n">
-        <v>8.821528434753418</v>
+        <v>8.659846305847168</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.08049497753381729</v>
+        <v>0.06332752108573914</v>
       </c>
     </row>
     <row r="15">
@@ -1723,28 +1723,28 @@
         <v>5.437049388885498</v>
       </c>
       <c r="U15" t="n">
-        <v>-5.787214756011963</v>
+        <v>-4.690566062927246</v>
       </c>
       <c r="V15" t="n">
-        <v>1.62760591506958</v>
+        <v>1.361119270324707</v>
       </c>
       <c r="W15" t="n">
-        <v>22.0640754699707</v>
+        <v>29.23368835449219</v>
       </c>
       <c r="X15" t="n">
-        <v>2.335113048553467</v>
+        <v>3.046323537826538</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.070863246917725</v>
+        <v>3.285923719406128</v>
       </c>
       <c r="Z15" t="n">
-        <v>40.98735427856445</v>
+        <v>84.13898468017578</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.913331508636475</v>
+        <v>8.307995796203613</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.1541891098022461</v>
+        <v>0.1943686306476593</v>
       </c>
     </row>
     <row r="16">
@@ -1809,28 +1809,28 @@
         <v>5.477040767669678</v>
       </c>
       <c r="U16" t="n">
-        <v>15.85638523101807</v>
+        <v>8.711766242980957</v>
       </c>
       <c r="V16" t="n">
-        <v>1.491571187973022</v>
+        <v>1.065898418426514</v>
       </c>
       <c r="W16" t="n">
-        <v>21.22501182556152</v>
+        <v>25.05483627319336</v>
       </c>
       <c r="X16" t="n">
-        <v>2.806985139846802</v>
+        <v>3.343739986419678</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.4440598487854</v>
+        <v>3.040406465530396</v>
       </c>
       <c r="Z16" t="n">
-        <v>45.28851318359375</v>
+        <v>58.63868713378906</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.60476541519165</v>
+        <v>7.808192729949951</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.2055215835571289</v>
+        <v>0.01972217671573162</v>
       </c>
     </row>
     <row r="17">
@@ -1895,28 +1895,28 @@
         <v>5.405351638793945</v>
       </c>
       <c r="U17" t="n">
-        <v>6.214529514312744</v>
+        <v>8.585371017456055</v>
       </c>
       <c r="V17" t="n">
-        <v>1.256117939949036</v>
+        <v>0.9973777532577515</v>
       </c>
       <c r="W17" t="n">
-        <v>18.99623870849609</v>
+        <v>16.21325302124023</v>
       </c>
       <c r="X17" t="n">
-        <v>3.146314144134521</v>
+        <v>3.928333759307861</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.630241394042969</v>
+        <v>2.732420444488525</v>
       </c>
       <c r="Z17" t="n">
-        <v>48.55532455444336</v>
+        <v>75.65853118896484</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.770908832550049</v>
+        <v>8.319626808166504</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0901031568646431</v>
+        <v>0.0182057935744524</v>
       </c>
     </row>
     <row r="18">
@@ -1981,28 +1981,28 @@
         <v>-9.897761344909668</v>
       </c>
       <c r="U18" t="n">
-        <v>2.7548987865448</v>
+        <v>4.911242008209229</v>
       </c>
       <c r="V18" t="n">
-        <v>2.943263292312622</v>
+        <v>1.025573968887329</v>
       </c>
       <c r="W18" t="n">
-        <v>16.58693313598633</v>
+        <v>16.45138549804688</v>
       </c>
       <c r="X18" t="n">
-        <v>2.841570377349854</v>
+        <v>3.806483745574951</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.338920116424561</v>
+        <v>2.826501369476318</v>
       </c>
       <c r="Z18" t="n">
-        <v>29.83127021789551</v>
+        <v>54.46052551269531</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.951504230499268</v>
+        <v>8.239154815673828</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01452411059290171</v>
+        <v>0.04892966896295547</v>
       </c>
     </row>
     <row r="19">
@@ -2067,28 +2067,28 @@
         <v>-13.50160980224609</v>
       </c>
       <c r="U19" t="n">
-        <v>4.903817176818848</v>
+        <v>2.315547704696655</v>
       </c>
       <c r="V19" t="n">
-        <v>1.253729104995728</v>
+        <v>0.9670138359069824</v>
       </c>
       <c r="W19" t="n">
-        <v>16.3564453125</v>
+        <v>15.16062545776367</v>
       </c>
       <c r="X19" t="n">
-        <v>2.44394850730896</v>
+        <v>3.3110671043396</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.22455096244812</v>
+        <v>2.552647352218628</v>
       </c>
       <c r="Z19" t="n">
-        <v>28.39531517028809</v>
+        <v>44.21354675292969</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.2332444190979</v>
+        <v>7.235811233520508</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.152679905295372</v>
+        <v>0.1529804766178131</v>
       </c>
     </row>
     <row r="20">
@@ -2153,28 +2153,28 @@
         <v>-212.7767181396484</v>
       </c>
       <c r="U20" t="n">
-        <v>1.729934215545654</v>
+        <v>-0.9721386432647705</v>
       </c>
       <c r="V20" t="n">
-        <v>1.345542192459106</v>
+        <v>1.296969413757324</v>
       </c>
       <c r="W20" t="n">
-        <v>15.57907676696777</v>
+        <v>15.66396999359131</v>
       </c>
       <c r="X20" t="n">
-        <v>2.353670835494995</v>
+        <v>3.188789129257202</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.354129791259766</v>
+        <v>2.600888252258301</v>
       </c>
       <c r="Z20" t="n">
-        <v>29.69048118591309</v>
+        <v>64.76872253417969</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.626319885253906</v>
+        <v>5.776361465454102</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.01337542850524187</v>
+        <v>0.03900310397148132</v>
       </c>
     </row>
     <row r="21">
@@ -2239,28 +2239,28 @@
         <v>11.91336536407471</v>
       </c>
       <c r="U21" t="n">
-        <v>6.805757999420166</v>
+        <v>7.409895420074463</v>
       </c>
       <c r="V21" t="n">
-        <v>0.8860945701599121</v>
+        <v>1.007595658302307</v>
       </c>
       <c r="W21" t="n">
-        <v>16.70068359375</v>
+        <v>16.79703330993652</v>
       </c>
       <c r="X21" t="n">
-        <v>2.303891897201538</v>
+        <v>2.898318529129028</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.411696195602417</v>
+        <v>2.636359691619873</v>
       </c>
       <c r="Z21" t="n">
-        <v>25.36821365356445</v>
+        <v>33.67004013061523</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.311218738555908</v>
+        <v>5.946139812469482</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.4134414494037628</v>
+        <v>0.2625160217285156</v>
       </c>
     </row>
     <row r="22">
@@ -2325,28 +2325,28 @@
         <v>8.473251342773438</v>
       </c>
       <c r="U22" t="n">
-        <v>15.79453277587891</v>
+        <v>6.90827465057373</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8361378312110901</v>
+        <v>0.9648430347442627</v>
       </c>
       <c r="W22" t="n">
-        <v>18.74080085754395</v>
+        <v>16.24163246154785</v>
       </c>
       <c r="X22" t="n">
-        <v>2.224418640136719</v>
+        <v>3.023556232452393</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.306359767913818</v>
+        <v>2.640669345855713</v>
       </c>
       <c r="Z22" t="n">
-        <v>26.57259368896484</v>
+        <v>33.26092910766602</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.070556163787842</v>
+        <v>7.527064323425293</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.1242882460355759</v>
+        <v>0.1773992031812668</v>
       </c>
     </row>
     <row r="23">
@@ -2409,28 +2409,28 @@
         <v>6.043537616729736</v>
       </c>
       <c r="U23" t="n">
-        <v>-4.811892032623291</v>
+        <v>1.354864358901978</v>
       </c>
       <c r="V23" t="n">
-        <v>0.9251434206962585</v>
+        <v>1.012548327445984</v>
       </c>
       <c r="W23" t="n">
-        <v>17.59256744384766</v>
+        <v>15.28047943115234</v>
       </c>
       <c r="X23" t="n">
-        <v>1.94025719165802</v>
+        <v>2.88432765007019</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.939667463302612</v>
+        <v>2.375350475311279</v>
       </c>
       <c r="Z23" t="n">
-        <v>26.57654571533203</v>
+        <v>33.37136077880859</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.96026086807251</v>
+        <v>5.538767337799072</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.3736292123794556</v>
+        <v>0.3259631395339966</v>
       </c>
     </row>
     <row r="24">
@@ -2493,28 +2493,28 @@
         <v>13.73181056976318</v>
       </c>
       <c r="U24" t="n">
-        <v>3.15735125541687</v>
+        <v>7.345706462860107</v>
       </c>
       <c r="V24" t="n">
-        <v>0.9510419964790344</v>
+        <v>0.9624327421188354</v>
       </c>
       <c r="W24" t="n">
-        <v>18.76387023925781</v>
+        <v>14.74308586120605</v>
       </c>
       <c r="X24" t="n">
-        <v>2.072715520858765</v>
+        <v>2.556542158126831</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.937233328819275</v>
+        <v>2.173083782196045</v>
       </c>
       <c r="Z24" t="n">
-        <v>26.57038116455078</v>
+        <v>31.11069107055664</v>
       </c>
       <c r="AA24" t="n">
-        <v>4.261297225952148</v>
+        <v>3.245975017547607</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.4634101986885071</v>
+        <v>0.2955680191516876</v>
       </c>
     </row>
     <row r="25">
@@ -2577,28 +2577,28 @@
         <v>-5.160568237304688</v>
       </c>
       <c r="U25" t="n">
-        <v>-2.393543004989624</v>
+        <v>4.200570106506348</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8661863803863525</v>
+        <v>0.9045341014862061</v>
       </c>
       <c r="W25" t="n">
-        <v>21.07391738891602</v>
+        <v>19.27862930297852</v>
       </c>
       <c r="X25" t="n">
-        <v>2.165852546691895</v>
+        <v>3.177674055099487</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.053652048110962</v>
+        <v>2.251128435134888</v>
       </c>
       <c r="Z25" t="n">
-        <v>29.45737838745117</v>
+        <v>33.18968963623047</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.807084560394287</v>
+        <v>2.282189607620239</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.08336763083934784</v>
+        <v>0.1274543404579163</v>
       </c>
     </row>
     <row r="26">
@@ -2661,28 +2661,28 @@
         <v>-2.987223148345947</v>
       </c>
       <c r="U26" t="n">
-        <v>-2.714963674545288</v>
+        <v>5.462733268737793</v>
       </c>
       <c r="V26" t="n">
-        <v>0.8813284635543823</v>
+        <v>0.9173359274864197</v>
       </c>
       <c r="W26" t="n">
-        <v>20.23241424560547</v>
+        <v>19.05533981323242</v>
       </c>
       <c r="X26" t="n">
-        <v>2.138200044631958</v>
+        <v>3.060468912124634</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.928293824195862</v>
+        <v>2.258945465087891</v>
       </c>
       <c r="Z26" t="n">
-        <v>29.78427314758301</v>
+        <v>32.24246215820312</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.39462423324585</v>
+        <v>2.478174448013306</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.1181026697158813</v>
+        <v>0.5315864682197571</v>
       </c>
     </row>
     <row r="27">
@@ -2745,28 +2745,28 @@
         <v>-4.630186080932617</v>
       </c>
       <c r="U27" t="n">
-        <v>14.18130970001221</v>
+        <v>10.36267375946045</v>
       </c>
       <c r="V27" t="n">
-        <v>0.9365584850311279</v>
+        <v>0.8755069375038147</v>
       </c>
       <c r="W27" t="n">
-        <v>21.63554382324219</v>
+        <v>20.85266494750977</v>
       </c>
       <c r="X27" t="n">
-        <v>2.48534893989563</v>
+        <v>3.676867961883545</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.217978715896606</v>
+        <v>2.428475379943848</v>
       </c>
       <c r="Z27" t="n">
-        <v>35.68428421020508</v>
+        <v>47.54757308959961</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.650591850280762</v>
+        <v>4.085107803344727</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.1903278827667236</v>
+        <v>0.07824843376874924</v>
       </c>
     </row>
     <row r="28">
@@ -2829,28 +2829,28 @@
         <v>-6.472227096557617</v>
       </c>
       <c r="U28" t="n">
-        <v>13.83597946166992</v>
+        <v>5.066188812255859</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8953343033790588</v>
+        <v>0.7741278409957886</v>
       </c>
       <c r="W28" t="n">
-        <v>22.43811416625977</v>
+        <v>18.22351264953613</v>
       </c>
       <c r="X28" t="n">
-        <v>2.750973224639893</v>
+        <v>3.801651000976562</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.308072328567505</v>
+        <v>2.404750347137451</v>
       </c>
       <c r="Z28" t="n">
-        <v>41.47742462158203</v>
+        <v>43.15253448486328</v>
       </c>
       <c r="AA28" t="n">
-        <v>4.189347267150879</v>
+        <v>3.717031717300415</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.1268257200717926</v>
+        <v>0.01587327010929585</v>
       </c>
     </row>
     <row r="29">
@@ -2913,28 +2913,28 @@
         <v>-20.39036560058594</v>
       </c>
       <c r="U29" t="n">
-        <v>13.94257068634033</v>
+        <v>8.981552124023438</v>
       </c>
       <c r="V29" t="n">
-        <v>1.090309739112854</v>
+        <v>0.8158981204032898</v>
       </c>
       <c r="W29" t="n">
-        <v>26.19751358032227</v>
+        <v>23.08290100097656</v>
       </c>
       <c r="X29" t="n">
-        <v>2.886513948440552</v>
+        <v>3.678309440612793</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.711923599243164</v>
+        <v>2.997437238693237</v>
       </c>
       <c r="Z29" t="n">
-        <v>42.43527603149414</v>
+        <v>99.41969299316406</v>
       </c>
       <c r="AA29" t="n">
-        <v>3.777144432067871</v>
+        <v>3.846938610076904</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.002942087594419718</v>
+        <v>0.02103149518370628</v>
       </c>
     </row>
     <row r="30">
@@ -2997,28 +2997,28 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>1.656634926795959</v>
+        <v>2.126890659332275</v>
       </c>
       <c r="V30" t="n">
-        <v>1.319076061248779</v>
+        <v>0.9111055135726929</v>
       </c>
       <c r="W30" t="n">
-        <v>25.34797668457031</v>
+        <v>24.52474975585938</v>
       </c>
       <c r="X30" t="n">
-        <v>2.92300271987915</v>
+        <v>3.914633750915527</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.389479637145996</v>
+        <v>3.40296483039856</v>
       </c>
       <c r="Z30" t="n">
-        <v>29.65060424804688</v>
+        <v>57.30076217651367</v>
       </c>
       <c r="AA30" t="n">
-        <v>3.814249992370605</v>
+        <v>3.701020479202271</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.08482994884252548</v>
+        <v>0.1180193796753883</v>
       </c>
     </row>
     <row r="31">
@@ -3081,28 +3081,28 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>13.46588325500488</v>
+        <v>6.09492301940918</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8764542937278748</v>
+        <v>0.7574238181114197</v>
       </c>
       <c r="W31" t="n">
-        <v>25.1685905456543</v>
+        <v>26.44831657409668</v>
       </c>
       <c r="X31" t="n">
-        <v>2.819337368011475</v>
+        <v>4.345718383789062</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.707123517990112</v>
+        <v>4.056146144866943</v>
       </c>
       <c r="Z31" t="n">
-        <v>29.49445915222168</v>
+        <v>72.38691711425781</v>
       </c>
       <c r="AA31" t="n">
-        <v>4.071295738220215</v>
+        <v>4.160554885864258</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.06198427081108093</v>
+        <v>0.08210813999176025</v>
       </c>
     </row>
     <row r="32">
@@ -3165,28 +3165,28 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>-2.968629360198975</v>
+        <v>-4.235616683959961</v>
       </c>
       <c r="V32" t="n">
-        <v>1.013589382171631</v>
+        <v>0.7696300148963928</v>
       </c>
       <c r="W32" t="n">
-        <v>24.38717651367188</v>
+        <v>21.29700088500977</v>
       </c>
       <c r="X32" t="n">
-        <v>2.623947858810425</v>
+        <v>3.724547147750854</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.473183155059814</v>
+        <v>3.456091403961182</v>
       </c>
       <c r="Z32" t="n">
-        <v>29.23315048217773</v>
+        <v>44.79299926757812</v>
       </c>
       <c r="AA32" t="n">
-        <v>3.533350229263306</v>
+        <v>3.552060604095459</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.2473020702600479</v>
+        <v>0.2512668669223785</v>
       </c>
     </row>
     <row r="33">
@@ -3251,28 +3251,28 @@
         <v>-17.72206687927246</v>
       </c>
       <c r="U33" t="n">
-        <v>9.983667373657227</v>
+        <v>10.77554702758789</v>
       </c>
       <c r="V33" t="n">
-        <v>0.812844455242157</v>
+        <v>0.8019452095031738</v>
       </c>
       <c r="W33" t="n">
-        <v>26.06342315673828</v>
+        <v>24.73149108886719</v>
       </c>
       <c r="X33" t="n">
-        <v>3.088779449462891</v>
+        <v>4.749337673187256</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.684402704238892</v>
+        <v>3.780777454376221</v>
       </c>
       <c r="Z33" t="n">
-        <v>36.54312896728516</v>
+        <v>46.09169006347656</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.404293298721313</v>
+        <v>2.573534727096558</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.1756187826395035</v>
+        <v>0.09830745309591293</v>
       </c>
     </row>
     <row r="34">
@@ -3333,28 +3333,28 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>7.338178157806396</v>
+        <v>5.699102878570557</v>
       </c>
       <c r="V34" t="n">
-        <v>0.8260447382926941</v>
+        <v>0.8059452772140503</v>
       </c>
       <c r="W34" t="n">
-        <v>28.07483673095703</v>
+        <v>28.08119964599609</v>
       </c>
       <c r="X34" t="n">
-        <v>2.878907442092896</v>
+        <v>5.419404029846191</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.653750896453857</v>
+        <v>4.439445495605469</v>
       </c>
       <c r="Z34" t="n">
-        <v>45.80002593994141</v>
+        <v>66.96798706054688</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.541719913482666</v>
+        <v>2.848656415939331</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.08375183492898941</v>
+        <v>0.1824755668640137</v>
       </c>
     </row>
     <row r="35">
@@ -3417,28 +3417,28 @@
         <v>-14.99971008300781</v>
       </c>
       <c r="U35" t="n">
-        <v>2.872595548629761</v>
+        <v>2.931014776229858</v>
       </c>
       <c r="V35" t="n">
-        <v>0.9382953643798828</v>
+        <v>0.7644460797309875</v>
       </c>
       <c r="W35" t="n">
-        <v>27.82100296020508</v>
+        <v>24.41447067260742</v>
       </c>
       <c r="X35" t="n">
-        <v>2.788861036300659</v>
+        <v>4.65946626663208</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.493791818618774</v>
+        <v>3.844573259353638</v>
       </c>
       <c r="Z35" t="n">
-        <v>43.33421325683594</v>
+        <v>65.07326507568359</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.132683753967285</v>
+        <v>2.208829164505005</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.1365978866815567</v>
+        <v>0.1663621217012405</v>
       </c>
     </row>
     <row r="36">
@@ -3499,28 +3499,28 @@
         <v>-15.82453632354736</v>
       </c>
       <c r="U36" t="n">
-        <v>7.600418567657471</v>
+        <v>-1.973148941993713</v>
       </c>
       <c r="V36" t="n">
-        <v>0.8538144826889038</v>
+        <v>0.8671501278877258</v>
       </c>
       <c r="W36" t="n">
-        <v>26.80090713500977</v>
+        <v>23.44604301452637</v>
       </c>
       <c r="X36" t="n">
-        <v>2.594763278961182</v>
+        <v>4.766845703125</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.470356464385986</v>
+        <v>3.972153425216675</v>
       </c>
       <c r="Z36" t="n">
-        <v>40.36141586303711</v>
+        <v>68.05706024169922</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.782959342002869</v>
+        <v>1.953030943870544</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.2929219603538513</v>
+        <v>0.180333212018013</v>
       </c>
     </row>
     <row r="37">
@@ -3581,28 +3581,28 @@
         <v>-6.501558780670166</v>
       </c>
       <c r="U37" t="n">
-        <v>-2.711416721343994</v>
+        <v>-3.481417417526245</v>
       </c>
       <c r="V37" t="n">
-        <v>0.8145090341567993</v>
+        <v>0.9293055534362793</v>
       </c>
       <c r="W37" t="n">
-        <v>21.97461318969727</v>
+        <v>16.33066368103027</v>
       </c>
       <c r="X37" t="n">
-        <v>2.324527263641357</v>
+        <v>3.328112363815308</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.249144554138184</v>
+        <v>3.651376008987427</v>
       </c>
       <c r="Z37" t="n">
-        <v>37.48709487915039</v>
+        <v>48.91049957275391</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.317469358444214</v>
+        <v>2.291332244873047</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01835214719176292</v>
+        <v>0.02996843867003918</v>
       </c>
     </row>
     <row r="38">
@@ -3663,28 +3663,28 @@
         <v>-21.87694931030273</v>
       </c>
       <c r="U38" t="n">
-        <v>13.00277042388916</v>
+        <v>12.93759346008301</v>
       </c>
       <c r="V38" t="n">
-        <v>0.8003328442573547</v>
+        <v>0.9779113531112671</v>
       </c>
       <c r="W38" t="n">
-        <v>23.52780914306641</v>
+        <v>19.84153175354004</v>
       </c>
       <c r="X38" t="n">
-        <v>2.631568908691406</v>
+        <v>4.316104888916016</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.28180193901062</v>
+        <v>4.37107515335083</v>
       </c>
       <c r="Z38" t="n">
-        <v>36.08995056152344</v>
+        <v>57.5989875793457</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.411489009857178</v>
+        <v>2.410277605056763</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.8193673491477966</v>
+        <v>0.8202818036079407</v>
       </c>
     </row>
     <row r="39">
@@ -3745,28 +3745,28 @@
         <v>-33.95224380493164</v>
       </c>
       <c r="U39" t="n">
-        <v>2.309800386428833</v>
+        <v>4.367109298706055</v>
       </c>
       <c r="V39" t="n">
-        <v>1.087485074996948</v>
+        <v>0.8476399779319763</v>
       </c>
       <c r="W39" t="n">
-        <v>25.75225448608398</v>
+        <v>21.8108959197998</v>
       </c>
       <c r="X39" t="n">
-        <v>2.709698677062988</v>
+        <v>4.209135055541992</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.431092977523804</v>
+        <v>4.820325374603271</v>
       </c>
       <c r="Z39" t="n">
-        <v>37.47559356689453</v>
+        <v>57.1953010559082</v>
       </c>
       <c r="AA39" t="n">
-        <v>4.731292724609375</v>
+        <v>4.948873996734619</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.4144062101840973</v>
+        <v>0.3522207140922546</v>
       </c>
     </row>
     <row r="40">
@@ -3829,28 +3829,28 @@
         <v>-162.8553619384766</v>
       </c>
       <c r="U40" t="n">
-        <v>9.36836051940918</v>
+        <v>0.1829819232225418</v>
       </c>
       <c r="V40" t="n">
-        <v>1.047212958335876</v>
+        <v>0.8136475086212158</v>
       </c>
       <c r="W40" t="n">
-        <v>28.82490921020508</v>
+        <v>25.9398365020752</v>
       </c>
       <c r="X40" t="n">
-        <v>2.978709697723389</v>
+        <v>4.077156066894531</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.799382209777832</v>
+        <v>5.526295185089111</v>
       </c>
       <c r="Z40" t="n">
-        <v>39.8637809753418</v>
+        <v>61.93001937866211</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.829320907592773</v>
+        <v>6.947309017181396</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.3617030680179596</v>
+        <v>0.3385768532752991</v>
       </c>
     </row>
     <row r="41">
@@ -3913,28 +3913,28 @@
         <v>106.7958755493164</v>
       </c>
       <c r="U41" t="n">
-        <v>7.56372594833374</v>
+        <v>8.20561695098877</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8443673849105835</v>
+        <v>0.8548945784568787</v>
       </c>
       <c r="W41" t="n">
-        <v>30.7586612701416</v>
+        <v>30.6441707611084</v>
       </c>
       <c r="X41" t="n">
-        <v>3.091141223907471</v>
+        <v>4.638057708740234</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.030298948287964</v>
+        <v>5.392597675323486</v>
       </c>
       <c r="Z41" t="n">
-        <v>42.67475128173828</v>
+        <v>62.63394546508789</v>
       </c>
       <c r="AA41" t="n">
-        <v>9.69047737121582</v>
+        <v>10.3086633682251</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.3887828290462494</v>
+        <v>0.3055008351802826</v>
       </c>
     </row>
     <row r="42">
@@ -3997,28 +3997,28 @@
         <v>-76.72530364990234</v>
       </c>
       <c r="U42" t="n">
-        <v>12.35012245178223</v>
+        <v>6.441339492797852</v>
       </c>
       <c r="V42" t="n">
-        <v>0.9431003332138062</v>
+        <v>0.8072487711906433</v>
       </c>
       <c r="W42" t="n">
-        <v>31.58832168579102</v>
+        <v>33.14988327026367</v>
       </c>
       <c r="X42" t="n">
-        <v>3.148293495178223</v>
+        <v>5.267573833465576</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.859902381896973</v>
+        <v>5.359817981719971</v>
       </c>
       <c r="Z42" t="n">
-        <v>36.61151885986328</v>
+        <v>98.99367523193359</v>
       </c>
       <c r="AA42" t="n">
-        <v>13.64155387878418</v>
+        <v>13.33806896209717</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.1002960279583931</v>
+        <v>0.07982480525970459</v>
       </c>
     </row>
     <row r="43">
@@ -4081,28 +4081,28 @@
         <v>-81.30596160888672</v>
       </c>
       <c r="U43" t="n">
-        <v>8.998821258544922</v>
+        <v>5.41429615020752</v>
       </c>
       <c r="V43" t="n">
-        <v>1.263109087944031</v>
+        <v>0.7912178635597229</v>
       </c>
       <c r="W43" t="n">
-        <v>31.64831352233887</v>
+        <v>34.90724182128906</v>
       </c>
       <c r="X43" t="n">
-        <v>3.371309041976929</v>
+        <v>5.584845542907715</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.142774820327759</v>
+        <v>5.73552131652832</v>
       </c>
       <c r="Z43" t="n">
-        <v>36.67563247680664</v>
+        <v>108.2853012084961</v>
       </c>
       <c r="AA43" t="n">
-        <v>12.12553215026855</v>
+        <v>13.03689765930176</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.0826016366481781</v>
+        <v>0.006920611951500177</v>
       </c>
     </row>
     <row r="44">
@@ -4165,28 +4165,28 @@
         <v>-106.2330780029297</v>
       </c>
       <c r="U44" t="n">
-        <v>7.431192398071289</v>
+        <v>5.712923049926758</v>
       </c>
       <c r="V44" t="n">
-        <v>1.337264657020569</v>
+        <v>0.73951256275177</v>
       </c>
       <c r="W44" t="n">
-        <v>30.51578140258789</v>
+        <v>42.91617584228516</v>
       </c>
       <c r="X44" t="n">
-        <v>3.61185097694397</v>
+        <v>5.887606143951416</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.196490526199341</v>
+        <v>5.839398860931396</v>
       </c>
       <c r="Z44" t="n">
-        <v>44.12979125976562</v>
+        <v>90.57038116455078</v>
       </c>
       <c r="AA44" t="n">
-        <v>12.64743518829346</v>
+        <v>13.74873352050781</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.09743385761976242</v>
+        <v>0.1697310358285904</v>
       </c>
     </row>
     <row r="45">
@@ -4251,28 +4251,28 @@
         <v>182.6023254394531</v>
       </c>
       <c r="U45" t="n">
-        <v>12.49377346038818</v>
+        <v>12.28516387939453</v>
       </c>
       <c r="V45" t="n">
-        <v>1.671107411384583</v>
+        <v>0.7933712005615234</v>
       </c>
       <c r="W45" t="n">
-        <v>31.0988826751709</v>
+        <v>29.34256172180176</v>
       </c>
       <c r="X45" t="n">
-        <v>3.589938640594482</v>
+        <v>4.613115787506104</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.379335165023804</v>
+        <v>5.22587251663208</v>
       </c>
       <c r="Z45" t="n">
-        <v>45.01469802856445</v>
+        <v>50.55996322631836</v>
       </c>
       <c r="AA45" t="n">
-        <v>10.93716907501221</v>
+        <v>11.63989543914795</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.02293683402240276</v>
+        <v>0.03882013633847237</v>
       </c>
     </row>
     <row r="46">
@@ -4335,28 +4335,28 @@
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>-5.387733459472656</v>
+        <v>-6.410986423492432</v>
       </c>
       <c r="V46" t="n">
-        <v>1.762621283531189</v>
+        <v>0.8914413452148438</v>
       </c>
       <c r="W46" t="n">
-        <v>28.52605819702148</v>
+        <v>27.38418579101562</v>
       </c>
       <c r="X46" t="n">
-        <v>3.31353759765625</v>
+        <v>4.284903049468994</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.005045652389526</v>
+        <v>4.639182090759277</v>
       </c>
       <c r="Z46" t="n">
-        <v>39.12208938598633</v>
+        <v>57.9273796081543</v>
       </c>
       <c r="AA46" t="n">
-        <v>10.10008335113525</v>
+        <v>10.28631401062012</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.4186630547046661</v>
+        <v>0.3929785788059235</v>
       </c>
     </row>
     <row r="47">
@@ -4419,28 +4419,28 @@
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>19.16904258728027</v>
+        <v>10.09433555603027</v>
       </c>
       <c r="V47" t="n">
-        <v>1.569914698600769</v>
+        <v>0.8067531585693359</v>
       </c>
       <c r="W47" t="n">
-        <v>32.67284393310547</v>
+        <v>29.89460182189941</v>
       </c>
       <c r="X47" t="n">
-        <v>3.715671062469482</v>
+        <v>4.491508483886719</v>
       </c>
       <c r="Y47" t="n">
-        <v>3.300546169281006</v>
+        <v>5.072663307189941</v>
       </c>
       <c r="Z47" t="n">
-        <v>46.09737396240234</v>
+        <v>64.97616577148438</v>
       </c>
       <c r="AA47" t="n">
-        <v>13.45328998565674</v>
+        <v>15.48680210113525</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.8656244874000549</v>
+        <v>0.6206565499305725</v>
       </c>
     </row>
     <row r="48">
@@ -4503,28 +4503,28 @@
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>-8.746844291687012</v>
+        <v>-3.883059978485107</v>
       </c>
       <c r="V48" t="n">
-        <v>1.454516172409058</v>
+        <v>0.8179985284805298</v>
       </c>
       <c r="W48" t="n">
-        <v>25.17562484741211</v>
+        <v>24.00314521789551</v>
       </c>
       <c r="X48" t="n">
-        <v>3.125117540359497</v>
+        <v>3.9261794090271</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.824340105056763</v>
+        <v>4.384198188781738</v>
       </c>
       <c r="Z48" t="n">
-        <v>38.18475341796875</v>
+        <v>41.76716613769531</v>
       </c>
       <c r="AA48" t="n">
-        <v>23.1197566986084</v>
+        <v>23.9675178527832</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.1412434577941895</v>
+        <v>0.1716187596321106</v>
       </c>
     </row>
     <row r="49">
@@ -4587,28 +4587,28 @@
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>-6.072609424591064</v>
+        <v>-1.75648295879364</v>
       </c>
       <c r="V49" t="n">
-        <v>1.787266612052917</v>
+        <v>0.9589525461196899</v>
       </c>
       <c r="W49" t="n">
-        <v>23.36940956115723</v>
+        <v>18.21269035339355</v>
       </c>
       <c r="X49" t="n">
-        <v>3.009905576705933</v>
+        <v>3.668382406234741</v>
       </c>
       <c r="Y49" t="n">
-        <v>2.739083290100098</v>
+        <v>4.033240795135498</v>
       </c>
       <c r="Z49" t="n">
-        <v>35.98374938964844</v>
+        <v>63.15680694580078</v>
       </c>
       <c r="AA49" t="n">
-        <v>18.41462707519531</v>
+        <v>19.23260498046875</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.3618605136871338</v>
+        <v>0.3039395213127136</v>
       </c>
     </row>
     <row r="50">
@@ -4671,28 +4671,28 @@
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>22.70649909973145</v>
+        <v>13.70797920227051</v>
       </c>
       <c r="V50" t="n">
-        <v>1.425612211227417</v>
+        <v>0.8051247596740723</v>
       </c>
       <c r="W50" t="n">
-        <v>27.59458160400391</v>
+        <v>21.80592727661133</v>
       </c>
       <c r="X50" t="n">
-        <v>3.432342290878296</v>
+        <v>4.192306518554688</v>
       </c>
       <c r="Y50" t="n">
-        <v>3.229958295822144</v>
+        <v>4.525920867919922</v>
       </c>
       <c r="Z50" t="n">
-        <v>52.36360549926758</v>
+        <v>76.71077728271484</v>
       </c>
       <c r="AA50" t="n">
-        <v>23.38158416748047</v>
+        <v>25.64160537719727</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.2899763882160187</v>
+        <v>0.1762793809175491</v>
       </c>
     </row>
     <row r="51">
@@ -4755,28 +4755,28 @@
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>2.818515062332153</v>
+        <v>3.864147901535034</v>
       </c>
       <c r="V51" t="n">
-        <v>1.890929818153381</v>
+        <v>0.7973578572273254</v>
       </c>
       <c r="W51" t="n">
-        <v>25.36082458496094</v>
+        <v>22.68081665039062</v>
       </c>
       <c r="X51" t="n">
-        <v>3.654677391052246</v>
+        <v>4.218302249908447</v>
       </c>
       <c r="Y51" t="n">
-        <v>3.235750675201416</v>
+        <v>4.997050762176514</v>
       </c>
       <c r="Z51" t="n">
-        <v>50.04637145996094</v>
+        <v>74.06719970703125</v>
       </c>
       <c r="AA51" t="n">
-        <v>29.14882850646973</v>
+        <v>31.89797019958496</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.04992527142167091</v>
+        <v>0.04056303575634956</v>
       </c>
     </row>
     <row r="52">
@@ -4839,28 +4839,28 @@
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>4.344624996185303</v>
+        <v>1.696710228919983</v>
       </c>
       <c r="V52" t="n">
-        <v>1.171019315719604</v>
+        <v>0.8082578778266907</v>
       </c>
       <c r="W52" t="n">
-        <v>27.14328384399414</v>
+        <v>22.83884048461914</v>
       </c>
       <c r="X52" t="n">
-        <v>3.155835151672363</v>
+        <v>4.022446155548096</v>
       </c>
       <c r="Y52" t="n">
-        <v>3.039540767669678</v>
+        <v>5.03864860534668</v>
       </c>
       <c r="Z52" t="n">
-        <v>50.86212158203125</v>
+        <v>76.96562957763672</v>
       </c>
       <c r="AA52" t="n">
-        <v>30.95039939880371</v>
+        <v>32.8559455871582</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.3712646663188934</v>
+        <v>0.2917354106903076</v>
       </c>
     </row>
     <row r="53">
@@ -4923,28 +4923,28 @@
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>17.56892585754395</v>
+        <v>9.673656463623047</v>
       </c>
       <c r="V53" t="n">
-        <v>1.285244464874268</v>
+        <v>0.7796394824981689</v>
       </c>
       <c r="W53" t="n">
-        <v>33.20806121826172</v>
+        <v>46.72177505493164</v>
       </c>
       <c r="X53" t="n">
-        <v>3.6585373878479</v>
+        <v>4.832510948181152</v>
       </c>
       <c r="Y53" t="n">
-        <v>3.587593793869019</v>
+        <v>5.819805145263672</v>
       </c>
       <c r="Z53" t="n">
-        <v>51.57041168212891</v>
+        <v>165.9518585205078</v>
       </c>
       <c r="AA53" t="n">
-        <v>43.55186462402344</v>
+        <v>48.58129119873047</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.1246926039457321</v>
+        <v>0.008257681503891945</v>
       </c>
     </row>
     <row r="54">
@@ -5007,28 +5007,28 @@
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>-4.416489124298096</v>
+        <v>-7.453718185424805</v>
       </c>
       <c r="V54" t="n">
-        <v>1.681977391242981</v>
+        <v>1.296542406082153</v>
       </c>
       <c r="W54" t="n">
-        <v>29.14023971557617</v>
+        <v>34.15632629394531</v>
       </c>
       <c r="X54" t="n">
-        <v>2.861134052276611</v>
+        <v>3.955423831939697</v>
       </c>
       <c r="Y54" t="n">
-        <v>2.893497467041016</v>
+        <v>4.828708648681641</v>
       </c>
       <c r="Z54" t="n">
-        <v>20.13291549682617</v>
+        <v>142.3336486816406</v>
       </c>
       <c r="AA54" t="n">
-        <v>50.61772918701172</v>
+        <v>53.06321334838867</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.08144382387399673</v>
+        <v>0.03160414099693298</v>
       </c>
     </row>
     <row r="55">
@@ -5093,28 +5093,28 @@
         <v>92.72152709960938</v>
       </c>
       <c r="U55" t="n">
-        <v>23.28197860717773</v>
+        <v>15.07452297210693</v>
       </c>
       <c r="V55" t="n">
-        <v>2.65428614616394</v>
+        <v>1.167610645294189</v>
       </c>
       <c r="W55" t="n">
-        <v>34.26746368408203</v>
+        <v>42.12689208984375</v>
       </c>
       <c r="X55" t="n">
-        <v>3.230941295623779</v>
+        <v>4.746824264526367</v>
       </c>
       <c r="Y55" t="n">
-        <v>3.819273471832275</v>
+        <v>6.065665721893311</v>
       </c>
       <c r="Z55" t="n">
-        <v>26.50589179992676</v>
+        <v>178.2278442382812</v>
       </c>
       <c r="AA55" t="n">
-        <v>57.94157028198242</v>
+        <v>59.60430526733398</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.4053773581981659</v>
+        <v>0.3661726415157318</v>
       </c>
     </row>
     <row r="56">
@@ -5179,28 +5179,28 @@
         <v>96.56891632080078</v>
       </c>
       <c r="U56" t="n">
-        <v>14.5925817489624</v>
+        <v>7.312137603759766</v>
       </c>
       <c r="V56" t="n">
-        <v>2.011340141296387</v>
+        <v>0.8362827301025391</v>
       </c>
       <c r="W56" t="n">
-        <v>34.22199249267578</v>
+        <v>49.06432723999023</v>
       </c>
       <c r="X56" t="n">
-        <v>3.535881996154785</v>
+        <v>5.400484085083008</v>
       </c>
       <c r="Y56" t="n">
-        <v>4.041492938995361</v>
+        <v>6.799293518066406</v>
       </c>
       <c r="Z56" t="n">
-        <v>30.30165672302246</v>
+        <v>174.9086303710938</v>
       </c>
       <c r="AA56" t="n">
-        <v>84.50460815429688</v>
+        <v>85.56703948974609</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.04905613884329796</v>
+        <v>0.03603067621588707</v>
       </c>
     </row>
     <row r="57">
@@ -5265,28 +5265,28 @@
         <v>106.3574371337891</v>
       </c>
       <c r="U57" t="n">
-        <v>23.71077537536621</v>
+        <v>17.70613479614258</v>
       </c>
       <c r="V57" t="n">
-        <v>2.090866327285767</v>
+        <v>0.8752202391624451</v>
       </c>
       <c r="W57" t="n">
-        <v>41.33236312866211</v>
+        <v>55.18873977661133</v>
       </c>
       <c r="X57" t="n">
-        <v>5.19491720199585</v>
+        <v>6.724422454833984</v>
       </c>
       <c r="Y57" t="n">
-        <v>6.074939727783203</v>
+        <v>7.957013130187988</v>
       </c>
       <c r="Z57" t="n">
-        <v>43.81010055541992</v>
+        <v>120.6676025390625</v>
       </c>
       <c r="AA57" t="n">
-        <v>90.90341186523438</v>
+        <v>96.05806732177734</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.08095860481262207</v>
+        <v>0.130276083946228</v>
       </c>
     </row>
     <row r="58">
@@ -5351,28 +5351,28 @@
         <v>50.74393844604492</v>
       </c>
       <c r="U58" t="n">
-        <v>7.126103401184082</v>
+        <v>10.0638484954834</v>
       </c>
       <c r="V58" t="n">
-        <v>3.171463489532471</v>
+        <v>0.8825987577438354</v>
       </c>
       <c r="W58" t="n">
-        <v>39.83154296875</v>
+        <v>56.27083587646484</v>
       </c>
       <c r="X58" t="n">
-        <v>4.314511775970459</v>
+        <v>7.885792255401611</v>
       </c>
       <c r="Y58" t="n">
-        <v>5.325400352478027</v>
+        <v>8.84131908416748</v>
       </c>
       <c r="Z58" t="n">
-        <v>29.15331840515137</v>
+        <v>140.0854949951172</v>
       </c>
       <c r="AA58" t="n">
-        <v>83.44912719726562</v>
+        <v>88.66188049316406</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.0009777063969522715</v>
+        <v>0.05971384793519974</v>
       </c>
     </row>
     <row r="59">
@@ -5437,28 +5437,28 @@
         <v>40.32204055786133</v>
       </c>
       <c r="U59" t="n">
-        <v>9.278759002685547</v>
+        <v>6.476329326629639</v>
       </c>
       <c r="V59" t="n">
-        <v>3.581840991973877</v>
+        <v>0.7359035015106201</v>
       </c>
       <c r="W59" t="n">
-        <v>31.3809928894043</v>
+        <v>57.48568344116211</v>
       </c>
       <c r="X59" t="n">
-        <v>3.920868635177612</v>
+        <v>7.221311569213867</v>
       </c>
       <c r="Y59" t="n">
-        <v>5.330114364624023</v>
+        <v>8.711979866027832</v>
       </c>
       <c r="Z59" t="n">
-        <v>25.50041580200195</v>
+        <v>129.1150512695312</v>
       </c>
       <c r="AA59" t="n">
-        <v>80.01165008544922</v>
+        <v>89.29838562011719</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.3436225354671478</v>
+        <v>0.2038902342319489</v>
       </c>
     </row>
     <row r="60">
@@ -5521,28 +5521,28 @@
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>5.126150131225586</v>
+        <v>5.697089195251465</v>
       </c>
       <c r="V60" t="n">
-        <v>2.8041672706604</v>
+        <v>0.6847963333129883</v>
       </c>
       <c r="W60" t="n">
-        <v>33.44975280761719</v>
+        <v>66.92941284179688</v>
       </c>
       <c r="X60" t="n">
-        <v>4.401675701141357</v>
+        <v>6.7563157081604</v>
       </c>
       <c r="Y60" t="n">
-        <v>5.915764331817627</v>
+        <v>8.363909721374512</v>
       </c>
       <c r="Z60" t="n">
-        <v>26.67680358886719</v>
+        <v>133.2014617919922</v>
       </c>
       <c r="AA60" t="n">
-        <v>99.16832733154297</v>
+        <v>113.086540222168</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.3891531527042389</v>
+        <v>0.2181820571422577</v>
       </c>
     </row>
     <row r="61">
@@ -5605,28 +5605,28 @@
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
-        <v>2.206584930419922</v>
+        <v>1.002563238143921</v>
       </c>
       <c r="V61" t="n">
-        <v>2.006390571594238</v>
+        <v>0.7870811223983765</v>
       </c>
       <c r="W61" t="n">
-        <v>27.1661376953125</v>
+        <v>32.78002548217773</v>
       </c>
       <c r="X61" t="n">
-        <v>3.949288368225098</v>
+        <v>8.302998542785645</v>
       </c>
       <c r="Y61" t="n">
-        <v>4.805084228515625</v>
+        <v>8.263084411621094</v>
       </c>
       <c r="Z61" t="n">
-        <v>19.39698791503906</v>
+        <v>99.39215850830078</v>
       </c>
       <c r="AA61" t="n">
-        <v>123.459228515625</v>
+        <v>125.7664108276367</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.1182551831007004</v>
+        <v>0.1344307661056519</v>
       </c>
     </row>
     <row r="62">
@@ -5691,28 +5691,28 @@
         <v>40.98998641967773</v>
       </c>
       <c r="U62" t="n">
-        <v>-12.446120262146</v>
+        <v>-5.526113986968994</v>
       </c>
       <c r="V62" t="n">
-        <v>2.418487787246704</v>
+        <v>0.8818456530570984</v>
       </c>
       <c r="W62" t="n">
-        <v>24.20445823669434</v>
+        <v>27.20151329040527</v>
       </c>
       <c r="X62" t="n">
-        <v>3.445061683654785</v>
+        <v>6.788287162780762</v>
       </c>
       <c r="Y62" t="n">
-        <v>3.539029359817505</v>
+        <v>7.06963586807251</v>
       </c>
       <c r="Z62" t="n">
-        <v>47.03566741943359</v>
+        <v>96.97868347167969</v>
       </c>
       <c r="AA62" t="n">
-        <v>100.0998077392578</v>
+        <v>95.30368804931641</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.1037429720163345</v>
+        <v>0.05863919481635094</v>
       </c>
     </row>
     <row r="63">
@@ -5777,28 +5777,28 @@
         <v>43.4395866394043</v>
       </c>
       <c r="U63" t="n">
-        <v>-1.947383403778076</v>
+        <v>-0.4031576216220856</v>
       </c>
       <c r="V63" t="n">
-        <v>1.518212676048279</v>
+        <v>0.8655956983566284</v>
       </c>
       <c r="W63" t="n">
-        <v>22.21758460998535</v>
+        <v>28.95837211608887</v>
       </c>
       <c r="X63" t="n">
-        <v>3.128250598907471</v>
+        <v>6.875967025756836</v>
       </c>
       <c r="Y63" t="n">
-        <v>3.113799333572388</v>
+        <v>6.7241530418396</v>
       </c>
       <c r="Z63" t="n">
-        <v>41.30362701416016</v>
+        <v>101.0932769775391</v>
       </c>
       <c r="AA63" t="n">
-        <v>86.76042175292969</v>
+        <v>88.54012298583984</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.1062762662768364</v>
+        <v>0.1242405623197556</v>
       </c>
     </row>
     <row r="64">
@@ -5863,28 +5863,28 @@
         <v>25.21214294433594</v>
       </c>
       <c r="U64" t="n">
-        <v>-14.66843318939209</v>
+        <v>-3.76108717918396</v>
       </c>
       <c r="V64" t="n">
-        <v>1.565906167030334</v>
+        <v>0.8040554523468018</v>
       </c>
       <c r="W64" t="n">
-        <v>18.21644973754883</v>
+        <v>23.73765182495117</v>
       </c>
       <c r="X64" t="n">
-        <v>2.536032199859619</v>
+        <v>5.925089359283447</v>
       </c>
       <c r="Y64" t="n">
-        <v>2.439275026321411</v>
+        <v>5.440875053405762</v>
       </c>
       <c r="Z64" t="n">
-        <v>37.21502685546875</v>
+        <v>109.6391983032227</v>
       </c>
       <c r="AA64" t="n">
-        <v>76.00191497802734</v>
+        <v>68.88546752929688</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.0900270938873291</v>
+        <v>0.003980748355388641</v>
       </c>
     </row>
     <row r="65">
@@ -5949,28 +5949,28 @@
         <v>33.98837661743164</v>
       </c>
       <c r="U65" t="n">
-        <v>12.35294055938721</v>
+        <v>7.121212959289551</v>
       </c>
       <c r="V65" t="n">
-        <v>1.576009273529053</v>
+        <v>0.7981511950492859</v>
       </c>
       <c r="W65" t="n">
-        <v>21.08717727661133</v>
+        <v>19.78864669799805</v>
       </c>
       <c r="X65" t="n">
-        <v>2.79499888420105</v>
+        <v>5.773221969604492</v>
       </c>
       <c r="Y65" t="n">
-        <v>2.892218828201294</v>
+        <v>5.683339595794678</v>
       </c>
       <c r="Z65" t="n">
-        <v>40.17830276489258</v>
+        <v>129.0155792236328</v>
       </c>
       <c r="AA65" t="n">
-        <v>70.9215087890625</v>
+        <v>69.59744262695312</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.2349253743886948</v>
+        <v>0.258419394493103</v>
       </c>
     </row>
     <row r="66">
@@ -6035,28 +6035,28 @@
         <v>47.40834808349609</v>
       </c>
       <c r="U66" t="n">
-        <v>17.62113952636719</v>
+        <v>5.522011756896973</v>
       </c>
       <c r="V66" t="n">
-        <v>2.115985870361328</v>
+        <v>0.8271195888519287</v>
       </c>
       <c r="W66" t="n">
-        <v>20.56360626220703</v>
+        <v>18.26479530334473</v>
       </c>
       <c r="X66" t="n">
-        <v>2.659192323684692</v>
+        <v>5.75272274017334</v>
       </c>
       <c r="Y66" t="n">
-        <v>2.439140796661377</v>
+        <v>5.527523040771484</v>
       </c>
       <c r="Z66" t="n">
-        <v>33.74048233032227</v>
+        <v>97.89028930664062</v>
       </c>
       <c r="AA66" t="n">
-        <v>88.99253082275391</v>
+        <v>87.40383148193359</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.2490181028842926</v>
+        <v>0.2717209458351135</v>
       </c>
     </row>
     <row r="67">
@@ -6121,28 +6121,28 @@
         <v>79.00649261474609</v>
       </c>
       <c r="U67" t="n">
-        <v>24.30088233947754</v>
+        <v>13.34313011169434</v>
       </c>
       <c r="V67" t="n">
-        <v>2.114786863327026</v>
+        <v>0.8237630724906921</v>
       </c>
       <c r="W67" t="n">
-        <v>25.1257266998291</v>
+        <v>23.61451148986816</v>
       </c>
       <c r="X67" t="n">
-        <v>2.970253467559814</v>
+        <v>7.635805130004883</v>
       </c>
       <c r="Y67" t="n">
-        <v>2.934166669845581</v>
+        <v>7.036064147949219</v>
       </c>
       <c r="Z67" t="n">
-        <v>39.47962188720703</v>
+        <v>117.2888565063477</v>
       </c>
       <c r="AA67" t="n">
-        <v>113.1261215209961</v>
+        <v>113.0158233642578</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.07106296718120575</v>
+        <v>0.07015636563301086</v>
       </c>
     </row>
     <row r="68">
@@ -6207,28 +6207,28 @@
         <v>85.88431549072266</v>
       </c>
       <c r="U68" t="n">
-        <v>-7.840197086334229</v>
+        <v>-7.072248935699463</v>
       </c>
       <c r="V68" t="n">
-        <v>2.482446432113647</v>
+        <v>0.7696698307991028</v>
       </c>
       <c r="W68" t="n">
-        <v>22.03680229187012</v>
+        <v>19.20189666748047</v>
       </c>
       <c r="X68" t="n">
-        <v>2.255256414413452</v>
+        <v>5.140574932098389</v>
       </c>
       <c r="Y68" t="n">
-        <v>2.097156524658203</v>
+        <v>5.534896850585938</v>
       </c>
       <c r="Z68" t="n">
-        <v>32.6367073059082</v>
+        <v>90.54338836669922</v>
       </c>
       <c r="AA68" t="n">
-        <v>107.2788009643555</v>
+        <v>104.6953887939453</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.2619070112705231</v>
+        <v>0.2930451929569244</v>
       </c>
     </row>
     <row r="69">
@@ -6293,28 +6293,28 @@
         <v>166.7442932128906</v>
       </c>
       <c r="U69" t="n">
-        <v>27.62778282165527</v>
+        <v>20.7524242401123</v>
       </c>
       <c r="V69" t="n">
-        <v>3.226549625396729</v>
+        <v>0.829300582408905</v>
       </c>
       <c r="W69" t="n">
-        <v>27.12403106689453</v>
+        <v>29.13184547424316</v>
       </c>
       <c r="X69" t="n">
-        <v>2.719583034515381</v>
+        <v>5.688089370727539</v>
       </c>
       <c r="Y69" t="n">
-        <v>2.805401086807251</v>
+        <v>6.983685493469238</v>
       </c>
       <c r="Z69" t="n">
-        <v>42.09363555908203</v>
+        <v>309.5206604003906</v>
       </c>
       <c r="AA69" t="n">
-        <v>143.0374603271484</v>
+        <v>146.4554290771484</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.2294455319643021</v>
+        <v>0.2007527947425842</v>
       </c>
     </row>
     <row r="70">
@@ -6379,28 +6379,28 @@
         <v>150.3902740478516</v>
       </c>
       <c r="U70" t="n">
-        <v>3.93067479133606</v>
+        <v>4.465731143951416</v>
       </c>
       <c r="V70" t="n">
-        <v>7.184040546417236</v>
+        <v>0.8822119832038879</v>
       </c>
       <c r="W70" t="n">
-        <v>26.83354759216309</v>
+        <v>30.01410865783691</v>
       </c>
       <c r="X70" t="n">
-        <v>2.585130214691162</v>
+        <v>5.997162342071533</v>
       </c>
       <c r="Y70" t="n">
-        <v>2.70613956451416</v>
+        <v>8.066969871520996</v>
       </c>
       <c r="Z70" t="n">
-        <v>33.70885467529297</v>
+        <v>394.6003112792969</v>
       </c>
       <c r="AA70" t="n">
-        <v>178.61376953125</v>
+        <v>171.7918701171875</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.1018172279000282</v>
+        <v>0.06615015864372253</v>
       </c>
     </row>
     <row r="71">
@@ -6465,28 +6465,28 @@
         <v>116.7862701416016</v>
       </c>
       <c r="U71" t="n">
-        <v>9.912613868713379</v>
+        <v>7.764150619506836</v>
       </c>
       <c r="V71" t="n">
-        <v>3.355278968811035</v>
+        <v>0.8313513994216919</v>
       </c>
       <c r="W71" t="n">
-        <v>31.54535484313965</v>
+        <v>33.62127685546875</v>
       </c>
       <c r="X71" t="n">
-        <v>2.653018236160278</v>
+        <v>5.522486686706543</v>
       </c>
       <c r="Y71" t="n">
-        <v>2.941509246826172</v>
+        <v>8.187091827392578</v>
       </c>
       <c r="Z71" t="n">
-        <v>35.47351837158203</v>
+        <v>376.8014221191406</v>
       </c>
       <c r="AA71" t="n">
-        <v>162.9792785644531</v>
+        <v>159.1719207763672</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.07060409337282181</v>
+        <v>0.04837314411997795</v>
       </c>
     </row>
     <row r="72">
@@ -6551,28 +6551,28 @@
         <v>126.7416915893555</v>
       </c>
       <c r="U72" t="n">
-        <v>10.4087495803833</v>
+        <v>8.76019287109375</v>
       </c>
       <c r="V72" t="n">
-        <v>4.847194671630859</v>
+        <v>0.7827175259590149</v>
       </c>
       <c r="W72" t="n">
-        <v>27.09696197509766</v>
+        <v>46.85615921020508</v>
       </c>
       <c r="X72" t="n">
-        <v>2.670711278915405</v>
+        <v>5.601548671722412</v>
       </c>
       <c r="Y72" t="n">
-        <v>2.922261953353882</v>
+        <v>7.525652885437012</v>
       </c>
       <c r="Z72" t="n">
-        <v>38.4979133605957</v>
+        <v>483.7541809082031</v>
       </c>
       <c r="AA72" t="n">
-        <v>154.0418090820312</v>
+        <v>161.3709106445312</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.1488194912672043</v>
+        <v>0.1874781847000122</v>
       </c>
     </row>
     <row r="73">
@@ -6637,28 +6637,28 @@
         <v>63.77029800415039</v>
       </c>
       <c r="U73" t="n">
-        <v>6.042453765869141</v>
+        <v>7.140217304229736</v>
       </c>
       <c r="V73" t="n">
-        <v>7.269516944885254</v>
+        <v>0.8656622767448425</v>
       </c>
       <c r="W73" t="n">
-        <v>29.29658699035645</v>
+        <v>37.04991912841797</v>
       </c>
       <c r="X73" t="n">
-        <v>3.032679796218872</v>
+        <v>3.80642032623291</v>
       </c>
       <c r="Y73" t="n">
-        <v>3.105054378509521</v>
+        <v>6.309520244598389</v>
       </c>
       <c r="Z73" t="n">
-        <v>42.52743911743164</v>
+        <v>171.3397827148438</v>
       </c>
       <c r="AA73" t="n">
-        <v>128.9805755615234</v>
+        <v>130.1268310546875</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.2135053277015686</v>
+        <v>0.2204333692789078</v>
       </c>
     </row>
     <row r="74">
@@ -6723,25 +6723,25 @@
         <v>52.55229568481445</v>
       </c>
       <c r="U74" t="n">
-        <v>-7.083695411682129</v>
+        <v>-4.795558929443359</v>
       </c>
       <c r="V74" t="n">
-        <v>7.364883899688721</v>
+        <v>1.072934031486511</v>
       </c>
       <c r="W74" t="n">
-        <v>25.57559585571289</v>
+        <v>38.10112762451172</v>
       </c>
       <c r="X74" t="n">
-        <v>3.901598453521729</v>
+        <v>3.186452865600586</v>
       </c>
       <c r="Y74" t="n">
-        <v>4.819371700286865</v>
+        <v>6.416008949279785</v>
       </c>
       <c r="Z74" t="n">
-        <v>65.75243377685547</v>
+        <v>85.58014678955078</v>
       </c>
       <c r="AA74" t="n">
-        <v>99.63658905029297</v>
+        <v>105.0644149780273</v>
       </c>
       <c r="AB74" t="inlineStr"/>
     </row>

--- a/results/LSTMAttentionModel/AMD.O_pre.xlsx
+++ b/results/LSTMAttentionModel/AMD.O_pre.xlsx
@@ -653,10 +653,10 @@
         <v>17.28147315979004</v>
       </c>
       <c r="AA2" t="n">
-        <v>14.10380458831787</v>
+        <v>14.4714994430542</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02334972470998764</v>
+        <v>0.002651757095009089</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         <v>23.0880184173584</v>
       </c>
       <c r="AA3" t="n">
-        <v>13.59589576721191</v>
+        <v>14.37756443023682</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.04055770486593246</v>
+        <v>0.09271994233131409</v>
       </c>
     </row>
     <row r="4">
@@ -821,10 +821,10 @@
         <v>20.01893043518066</v>
       </c>
       <c r="AA4" t="n">
-        <v>13.2976245880127</v>
+        <v>13.49937343597412</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3660208284854889</v>
+        <v>0.3754956722259521</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +905,10 @@
         <v>79.53726196289062</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.700379371643066</v>
+        <v>8.090304374694824</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1732550114393234</v>
+        <v>0.2131012976169586</v>
       </c>
     </row>
     <row r="6">
@@ -989,10 +989,10 @@
         <v>73.74774932861328</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.273496150970459</v>
+        <v>7.103991031646729</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.02461457252502441</v>
+        <v>0.1386423856019974</v>
       </c>
     </row>
     <row r="7">
@@ -1073,10 +1073,10 @@
         <v>45.48172760009766</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.456552982330322</v>
+        <v>6.415531158447266</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.118901401758194</v>
+        <v>0.2506059110164642</v>
       </c>
     </row>
     <row r="8">
@@ -1157,10 +1157,10 @@
         <v>35.69476699829102</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.168662548065186</v>
+        <v>5.083989143371582</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4475084841251373</v>
+        <v>0.5469796061515808</v>
       </c>
     </row>
     <row r="9">
@@ -1241,10 +1241,10 @@
         <v>22.02891731262207</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.33535361289978</v>
+        <v>2.571621894836426</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.3955507576465607</v>
+        <v>0.2673342525959015</v>
       </c>
     </row>
     <row r="10">
@@ -1323,10 +1323,10 @@
         <v>40.86505508422852</v>
       </c>
       <c r="AA10" t="n">
-        <v>4.037015914916992</v>
+        <v>4.027681350708008</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.009597830474376678</v>
+        <v>0.007302472367882729</v>
       </c>
     </row>
     <row r="11">
@@ -1405,10 +1405,10 @@
         <v>47.66738891601562</v>
       </c>
       <c r="AA11" t="n">
-        <v>4.683813095092773</v>
+        <v>4.648239612579346</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.06016318500041962</v>
+        <v>0.06827673316001892</v>
       </c>
     </row>
     <row r="12">
@@ -1487,10 +1487,10 @@
         <v>19.70414161682129</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.570425510406494</v>
+        <v>5.983429431915283</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.437984436750412</v>
+        <v>0.338728129863739</v>
       </c>
     </row>
     <row r="13">
@@ -1569,10 +1569,10 @@
         <v>43.0188102722168</v>
       </c>
       <c r="AA13" t="n">
-        <v>9.150352478027344</v>
+        <v>9.500984191894531</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.04207595065236092</v>
+        <v>0.07742792367935181</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>83.82242584228516</v>
       </c>
       <c r="AA14" t="n">
-        <v>8.659846305847168</v>
+        <v>10.52488613128662</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.06332752108573914</v>
+        <v>0.2293085604906082</v>
       </c>
     </row>
     <row r="15">
@@ -1741,10 +1741,10 @@
         <v>84.13898468017578</v>
       </c>
       <c r="AA15" t="n">
-        <v>8.307995796203613</v>
+        <v>9.536746025085449</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.1943686306476593</v>
+        <v>0.2981691956520081</v>
       </c>
     </row>
     <row r="16">
@@ -1827,10 +1827,10 @@
         <v>58.63868713378906</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.808192729949951</v>
+        <v>8.110081672668457</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01972217671573162</v>
+        <v>0.01823586784303188</v>
       </c>
     </row>
     <row r="17">
@@ -1913,10 +1913,10 @@
         <v>75.65853118896484</v>
       </c>
       <c r="AA17" t="n">
-        <v>8.319626808166504</v>
+        <v>8.163130760192871</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0182057935744524</v>
+        <v>0.03772589936852455</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         <v>54.46052551269531</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.239154815673828</v>
+        <v>8.647703170776367</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.04892966896295547</v>
+        <v>0.09386162459850311</v>
       </c>
     </row>
     <row r="19">
@@ -2085,10 +2085,10 @@
         <v>44.21354675292969</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.235811233520508</v>
+        <v>7.814189910888672</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.1529804766178131</v>
+        <v>0.2156738638877869</v>
       </c>
     </row>
     <row r="20">
@@ -2171,10 +2171,10 @@
         <v>64.76872253417969</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.776361465454102</v>
+        <v>6.294864654541016</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.03900310397148132</v>
+        <v>0.118159681558609</v>
       </c>
     </row>
     <row r="21">
@@ -2257,10 +2257,10 @@
         <v>33.67004013061523</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.946139812469482</v>
+        <v>6.391176223754883</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.2625160217285156</v>
+        <v>0.1746033132076263</v>
       </c>
     </row>
     <row r="22">
@@ -2343,10 +2343,10 @@
         <v>33.26092910766602</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.527064323425293</v>
+        <v>7.845100879669189</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.1773992031812668</v>
+        <v>0.2107470333576202</v>
       </c>
     </row>
     <row r="23">
@@ -2427,10 +2427,10 @@
         <v>33.37136077880859</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.538767337799072</v>
+        <v>5.968199253082275</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.3259631395339966</v>
+        <v>0.3744623363018036</v>
       </c>
     </row>
     <row r="24">
@@ -2511,10 +2511,10 @@
         <v>31.11069107055664</v>
       </c>
       <c r="AA24" t="n">
-        <v>3.245975017547607</v>
+        <v>3.550960540771484</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.2955680191516876</v>
+        <v>0.3560703992843628</v>
       </c>
     </row>
     <row r="25">
@@ -2595,10 +2595,10 @@
         <v>33.18968963623047</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.282189607620239</v>
+        <v>2.4598388671875</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.1274543404579163</v>
+        <v>0.0460297204554081</v>
       </c>
     </row>
     <row r="26">
@@ -2679,10 +2679,10 @@
         <v>32.24246215820312</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.478174448013306</v>
+        <v>2.661434650421143</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.5315864682197571</v>
+        <v>0.4261249899864197</v>
       </c>
     </row>
     <row r="27">
@@ -2763,10 +2763,10 @@
         <v>47.54757308959961</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.085107803344727</v>
+        <v>4.333369731903076</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.07824843376874924</v>
+        <v>0.1310562491416931</v>
       </c>
     </row>
     <row r="28">
@@ -2847,10 +2847,10 @@
         <v>43.15253448486328</v>
       </c>
       <c r="AA28" t="n">
-        <v>3.717031717300415</v>
+        <v>4.116691589355469</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01587327010929585</v>
+        <v>0.1114150285720825</v>
       </c>
     </row>
     <row r="29">
@@ -2931,10 +2931,10 @@
         <v>99.41969299316406</v>
       </c>
       <c r="AA29" t="n">
-        <v>3.846938610076904</v>
+        <v>4.072499752044678</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.02103149518370628</v>
+        <v>0.07525304704904556</v>
       </c>
     </row>
     <row r="30">
@@ -3015,10 +3015,10 @@
         <v>57.30076217651367</v>
       </c>
       <c r="AA30" t="n">
-        <v>3.701020479202271</v>
+        <v>3.840839624404907</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.1180193796753883</v>
+        <v>0.07731980830430984</v>
       </c>
     </row>
     <row r="31">
@@ -3099,10 +3099,10 @@
         <v>72.38691711425781</v>
       </c>
       <c r="AA31" t="n">
-        <v>4.160554885864258</v>
+        <v>4.184139251708984</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.08210813999176025</v>
+        <v>0.08728194236755371</v>
       </c>
     </row>
     <row r="32">
@@ -3183,10 +3183,10 @@
         <v>44.79299926757812</v>
       </c>
       <c r="AA32" t="n">
-        <v>3.552060604095459</v>
+        <v>3.78878116607666</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.2512668669223785</v>
+        <v>0.2980472445487976</v>
       </c>
     </row>
     <row r="33">
@@ -3269,10 +3269,10 @@
         <v>46.09169006347656</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.573534727096558</v>
+        <v>2.688953876495361</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.09830745309591293</v>
+        <v>0.05116431787610054</v>
       </c>
     </row>
     <row r="34">
@@ -3351,10 +3351,10 @@
         <v>66.96798706054688</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.848656415939331</v>
+        <v>2.876213073730469</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.1824755668640137</v>
+        <v>0.1903081685304642</v>
       </c>
     </row>
     <row r="35">
@@ -3435,10 +3435,10 @@
         <v>65.07326507568359</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.208829164505005</v>
+        <v>2.210218906402588</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.1663621217012405</v>
+        <v>0.1668862849473953</v>
       </c>
     </row>
     <row r="36">
@@ -3517,10 +3517,10 @@
         <v>68.05706024169922</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.953030943870544</v>
+        <v>1.984415531158447</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.180333212018013</v>
+        <v>0.161665603518486</v>
       </c>
     </row>
     <row r="37">
@@ -3599,10 +3599,10 @@
         <v>48.91049957275391</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.291332244873047</v>
+        <v>2.278061389923096</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.02996843867003918</v>
+        <v>0.03596852347254753</v>
       </c>
     </row>
     <row r="38">
@@ -3681,10 +3681,10 @@
         <v>57.5989875793457</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.410277605056763</v>
+        <v>2.574573755264282</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.8202818036079407</v>
+        <v>0.7041206955909729</v>
       </c>
     </row>
     <row r="39">
@@ -3763,10 +3763,10 @@
         <v>57.1953010559082</v>
       </c>
       <c r="AA39" t="n">
-        <v>4.948873996734619</v>
+        <v>5.310779571533203</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.3522207140922546</v>
+        <v>0.2600729763507843</v>
       </c>
     </row>
     <row r="40">
@@ -3847,10 +3847,10 @@
         <v>61.93001937866211</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.947309017181396</v>
+        <v>7.273961544036865</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.3385768532752991</v>
+        <v>0.2784652709960938</v>
       </c>
     </row>
     <row r="41">
@@ -3931,10 +3931,10 @@
         <v>62.63394546508789</v>
       </c>
       <c r="AA41" t="n">
-        <v>10.3086633682251</v>
+        <v>11.23880863189697</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.3055008351802826</v>
+        <v>0.1974550932645798</v>
       </c>
     </row>
     <row r="42">
@@ -4015,10 +4015,10 @@
         <v>98.99367523193359</v>
       </c>
       <c r="AA42" t="n">
-        <v>13.33806896209717</v>
+        <v>13.6928071975708</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.07982480525970459</v>
+        <v>0.1036636903882027</v>
       </c>
     </row>
     <row r="43">
@@ -4099,10 +4099,10 @@
         <v>108.2853012084961</v>
       </c>
       <c r="AA43" t="n">
-        <v>13.03689765930176</v>
+        <v>12.79261684417725</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.006920611951500177</v>
+        <v>0.02614821679890156</v>
       </c>
     </row>
     <row r="44">
@@ -4183,10 +4183,10 @@
         <v>90.57038116455078</v>
       </c>
       <c r="AA44" t="n">
-        <v>13.74873352050781</v>
+        <v>13.06543827056885</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.1697310358285904</v>
+        <v>0.1263096928596497</v>
       </c>
     </row>
     <row r="45">
@@ -4269,10 +4269,10 @@
         <v>50.55996322631836</v>
       </c>
       <c r="AA45" t="n">
-        <v>11.63989543914795</v>
+        <v>11.59365367889404</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.03882013633847237</v>
+        <v>0.03498643264174461</v>
       </c>
     </row>
     <row r="46">
@@ -4353,10 +4353,10 @@
         <v>57.9273796081543</v>
       </c>
       <c r="AA46" t="n">
-        <v>10.28631401062012</v>
+        <v>10.5820837020874</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.3929785788059235</v>
+        <v>0.3540447652339935</v>
       </c>
     </row>
     <row r="47">
@@ -4437,10 +4437,10 @@
         <v>64.97616577148438</v>
       </c>
       <c r="AA47" t="n">
-        <v>15.48680210113525</v>
+        <v>16.02440643310547</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.6206565499305725</v>
+        <v>0.5662850141525269</v>
       </c>
     </row>
     <row r="48">
@@ -4521,10 +4521,10 @@
         <v>41.76716613769531</v>
       </c>
       <c r="AA48" t="n">
-        <v>23.9675178527832</v>
+        <v>25.50199127197266</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.1716187596321106</v>
+        <v>0.2214630544185638</v>
       </c>
     </row>
     <row r="49">
@@ -4605,10 +4605,10 @@
         <v>63.15680694580078</v>
       </c>
       <c r="AA49" t="n">
-        <v>19.23260498046875</v>
+        <v>20.27264022827148</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.3039395213127136</v>
+        <v>0.2370442748069763</v>
       </c>
     </row>
     <row r="50">
@@ -4689,10 +4689,10 @@
         <v>76.71077728271484</v>
       </c>
       <c r="AA50" t="n">
-        <v>25.64160537719727</v>
+        <v>27.67268753051758</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.1762793809175491</v>
+        <v>0.08994442969560623</v>
       </c>
     </row>
     <row r="51">
@@ -4773,10 +4773,10 @@
         <v>74.06719970703125</v>
       </c>
       <c r="AA51" t="n">
-        <v>31.89797019958496</v>
+        <v>33.08626174926758</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.04056303575634956</v>
+        <v>0.0750211700797081</v>
       </c>
     </row>
     <row r="52">
@@ -4857,10 +4857,10 @@
         <v>76.96562957763672</v>
       </c>
       <c r="AA52" t="n">
-        <v>32.8559455871582</v>
+        <v>31.86386489868164</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.2917354106903076</v>
+        <v>0.3319535851478577</v>
       </c>
     </row>
     <row r="53">
@@ -4941,10 +4941,10 @@
         <v>165.9518585205078</v>
       </c>
       <c r="AA53" t="n">
-        <v>48.58129119873047</v>
+        <v>48.4686393737793</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.008257681503891945</v>
+        <v>0.01060109492391348</v>
       </c>
     </row>
     <row r="54">
@@ -5025,10 +5025,10 @@
         <v>142.3336486816406</v>
       </c>
       <c r="AA54" t="n">
-        <v>53.06321334838867</v>
+        <v>55.81985092163086</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.03160414099693298</v>
+        <v>0.01934115402400494</v>
       </c>
     </row>
     <row r="55">
@@ -5111,10 +5111,10 @@
         <v>178.2278442382812</v>
       </c>
       <c r="AA55" t="n">
-        <v>59.60430526733398</v>
+        <v>62.29444885253906</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.3661726415157318</v>
+        <v>0.3071753978729248</v>
       </c>
     </row>
     <row r="56">
@@ -5197,10 +5197,10 @@
         <v>174.9086303710938</v>
       </c>
       <c r="AA56" t="n">
-        <v>85.56703948974609</v>
+        <v>86.37891387939453</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.03603067621588707</v>
+        <v>0.02629303745925426</v>
       </c>
     </row>
     <row r="57">
@@ -5283,10 +5283,10 @@
         <v>120.6676025390625</v>
       </c>
       <c r="AA57" t="n">
-        <v>96.05806732177734</v>
+        <v>96.46794128417969</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.130276083946228</v>
+        <v>0.1339713782072067</v>
       </c>
     </row>
     <row r="58">
@@ -5369,10 +5369,10 @@
         <v>140.0854949951172</v>
       </c>
       <c r="AA58" t="n">
-        <v>88.66188049316406</v>
+        <v>90.28927612304688</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.05971384793519974</v>
+        <v>0.07666178792715073</v>
       </c>
     </row>
     <row r="59">
@@ -5455,10 +5455,10 @@
         <v>129.1150512695312</v>
       </c>
       <c r="AA59" t="n">
-        <v>89.29838562011719</v>
+        <v>92.96307373046875</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.2038902342319489</v>
+        <v>0.1564318090677261</v>
       </c>
     </row>
     <row r="60">
@@ -5539,10 +5539,10 @@
         <v>133.2014617919922</v>
       </c>
       <c r="AA60" t="n">
-        <v>113.086540222168</v>
+        <v>115.471794128418</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.2181820571422577</v>
+        <v>0.1930185705423355</v>
       </c>
     </row>
     <row r="61">
@@ -5623,10 +5623,10 @@
         <v>99.39215850830078</v>
       </c>
       <c r="AA61" t="n">
-        <v>125.7664108276367</v>
+        <v>127.6347274780273</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.1344307661056519</v>
+        <v>0.1471009701490402</v>
       </c>
     </row>
     <row r="62">
@@ -5709,10 +5709,10 @@
         <v>96.97868347167969</v>
       </c>
       <c r="AA62" t="n">
-        <v>95.30368804931641</v>
+        <v>96.71405029296875</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.05863919481635094</v>
+        <v>0.07236687839031219</v>
       </c>
     </row>
     <row r="63">
@@ -5795,10 +5795,10 @@
         <v>101.0932769775391</v>
       </c>
       <c r="AA63" t="n">
-        <v>88.54012298583984</v>
+        <v>89.65047454833984</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.1242405623197556</v>
+        <v>0.1350871473550797</v>
       </c>
     </row>
     <row r="64">
@@ -5881,10 +5881,10 @@
         <v>109.6391983032227</v>
       </c>
       <c r="AA64" t="n">
-        <v>68.88546752929688</v>
+        <v>71.56305694580078</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.003980748355388641</v>
+        <v>0.03358399868011475</v>
       </c>
     </row>
     <row r="65">
@@ -5967,10 +5967,10 @@
         <v>129.0155792236328</v>
       </c>
       <c r="AA65" t="n">
-        <v>69.59744262695312</v>
+        <v>74.20473480224609</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.258419394493103</v>
+        <v>0.1802854835987091</v>
       </c>
     </row>
     <row r="66">
@@ -6053,10 +6053,10 @@
         <v>97.89028930664062</v>
       </c>
       <c r="AA66" t="n">
-        <v>87.40383148193359</v>
+        <v>88.40155029296875</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.2717209458351135</v>
+        <v>0.2573680281639099</v>
       </c>
     </row>
     <row r="67">
@@ -6139,10 +6139,10 @@
         <v>117.2888565063477</v>
       </c>
       <c r="AA67" t="n">
-        <v>113.0158233642578</v>
+        <v>113.999397277832</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.07015636563301086</v>
+        <v>0.07817894965410233</v>
       </c>
     </row>
     <row r="68">
@@ -6225,10 +6225,10 @@
         <v>90.54338836669922</v>
       </c>
       <c r="AA68" t="n">
-        <v>104.6953887939453</v>
+        <v>103.3179092407227</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.2930451929569244</v>
+        <v>0.3102846443653107</v>
       </c>
     </row>
     <row r="69">
@@ -6311,10 +6311,10 @@
         <v>309.5206604003906</v>
       </c>
       <c r="AA69" t="n">
-        <v>146.4554290771484</v>
+        <v>138.3354797363281</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.2007527947425842</v>
+        <v>0.271234005689621</v>
       </c>
     </row>
     <row r="70">
@@ -6397,10 +6397,10 @@
         <v>394.6003112792969</v>
       </c>
       <c r="AA70" t="n">
-        <v>171.7918701171875</v>
+        <v>179.3001861572266</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.06615015864372253</v>
+        <v>0.1052557528018951</v>
       </c>
     </row>
     <row r="71">
@@ -6483,10 +6483,10 @@
         <v>376.8014221191406</v>
       </c>
       <c r="AA71" t="n">
-        <v>159.1719207763672</v>
+        <v>162.1713104248047</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.04837314411997795</v>
+        <v>0.06597366183996201</v>
       </c>
     </row>
     <row r="72">
@@ -6569,10 +6569,10 @@
         <v>483.7541809082031</v>
       </c>
       <c r="AA72" t="n">
-        <v>161.3709106445312</v>
+        <v>162.1266784667969</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.1874781847000122</v>
+        <v>0.1912658214569092</v>
       </c>
     </row>
     <row r="73">
@@ -6655,10 +6655,10 @@
         <v>171.3397827148438</v>
       </c>
       <c r="AA73" t="n">
-        <v>130.1268310546875</v>
+        <v>132.9863128662109</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.2204333692789078</v>
+        <v>0.2371956706047058</v>
       </c>
     </row>
     <row r="74">
@@ -6741,7 +6741,7 @@
         <v>85.58014678955078</v>
       </c>
       <c r="AA74" t="n">
-        <v>105.0644149780273</v>
+        <v>108.4217147827148</v>
       </c>
       <c r="AB74" t="inlineStr"/>
     </row>
